--- a/Progressive score plots.xlsx
+++ b/Progressive score plots.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
   <si>
     <t>train</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>F1</t>
+  </si>
+  <si>
+    <t>Full Tensor</t>
   </si>
 </sst>
 </file>
@@ -383,7 +386,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,6 +530,256 @@
         <v>9</v>
       </c>
     </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <v>6</v>
+      </c>
+      <c r="G12">
+        <v>7</v>
+      </c>
+      <c r="H12">
+        <v>8</v>
+      </c>
+      <c r="I12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="C13">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="D13">
+        <v>0.628</v>
+      </c>
+      <c r="E13">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="F13">
+        <v>0.375</v>
+      </c>
+      <c r="G13">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="H13">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="I13">
+        <v>0.182</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="C14">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="D14">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="E14">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="F14">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="G14">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="H14">
+        <v>0.161</v>
+      </c>
+      <c r="I14">
+        <v>0.14799999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <f>1/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="C15">
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D15">
+        <f>3/4</f>
+        <v>0.75</v>
+      </c>
+      <c r="E15">
+        <f>4/5</f>
+        <v>0.8</v>
+      </c>
+      <c r="F15">
+        <f>5/6</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G15">
+        <f>6/7</f>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="H15">
+        <f>7/8</f>
+        <v>0.875</v>
+      </c>
+      <c r="I15">
+        <f>8/9</f>
+        <v>0.88888888888888884</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <f>1-(1-B14)/B15</f>
+        <v>0.6080000000000001</v>
+      </c>
+      <c r="C16">
+        <f>1-(1-C14)/C15</f>
+        <v>0.3819999999999999</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ref="D16:I16" si="1">1-(1-D14)/D15</f>
+        <v>0.28799999999999992</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>0.24250000000000005</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>0.16120000000000001</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>0.14600000000000002</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>4.1142857142857148E-2</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>4.1499999999999981E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="C17">
+        <v>0.59</v>
+      </c>
+      <c r="D17">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="E17">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="F17">
+        <v>0.34</v>
+      </c>
+      <c r="G17">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="H17">
+        <v>0.247</v>
+      </c>
+      <c r="I17">
+        <v>0.20899999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="C18">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="D18">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="E18">
+        <v>0.4</v>
+      </c>
+      <c r="F18">
+        <v>0.311</v>
+      </c>
+      <c r="G18">
+        <v>0.247</v>
+      </c>
+      <c r="H18">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="I18">
+        <v>0.14799999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="C19">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="D19">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="E19">
+        <v>0.39</v>
+      </c>
+      <c r="F19">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="G19">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="H19">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="I19">
+        <v>0.17299999999999999</v>
+      </c>
+    </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>3</v>
